--- a/KINX6AA2.xlsx
+++ b/KINX6AA2.xlsx
@@ -12,69 +12,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>BD (KINX6AA2) (MM)</t>
+  </si>
+  <si>
+    <t>KINX6AA2</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>BD (KINX6AA2)  (MM)</t>
+  </si>
+  <si>
+    <t>BD (KINX6AA2) /TP/GA (MM)</t>
+  </si>
+  <si>
+    <t>BD/Web (KINX6AA2) /TP/GA (XX)</t>
+  </si>
+  <si>
+    <t>BD (KINX6AA2) /TP/GC (MM)</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>BD/Web (KINX6AA2) /TP/GB (XX)</t>
+  </si>
+  <si>
+    <t>BD (KINX6AA2) /TP/GB (MM)</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>BD (KINX6AA2) (MM)</t>
-  </si>
-  <si>
-    <t>KINX6AA2</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>BD (KINX6AA2)  (MM)</t>
-  </si>
-  <si>
-    <t>BD (KINX6AA2) /TP/GA (MM)</t>
-  </si>
-  <si>
-    <t>BD/Web (KINX6AA2) /TP/GA (XX)</t>
-  </si>
-  <si>
-    <t>BD (KINX6AA2) /TP/GC (MM)</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>BD/Web (KINX6AA2) /TP/GB (XX)</t>
-  </si>
-  <si>
-    <t>BD (KINX6AA2) /TP/GB (MM)</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
     <t>BD/Web (KINX6AA2) /TP/GC (XX)</t>
-  </si>
-  <si>
-    <t>14:30</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -191,7 +188,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>9</v>
@@ -253,7 +250,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>1</v>
@@ -307,7 +304,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>9</v>
@@ -369,7 +366,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>1</v>
@@ -400,7 +397,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>9</v>
@@ -439,7 +436,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>1</v>
@@ -493,7 +490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>15</v>
@@ -524,7 +521,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>9</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>18</v>
@@ -617,7 +614,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -671,7 +668,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>15</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>9</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>18</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>1</v>
@@ -826,7 +823,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>9</v>
@@ -841,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>2.0</v>
@@ -865,7 +862,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>1</v>
@@ -896,7 +893,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>9</v>
@@ -935,7 +932,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>1</v>
@@ -966,7 +963,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>9</v>
